--- a/doc/Aufnahmen/Fact_sheet_Hollow_Form_ID151.xlsx
+++ b/doc/Aufnahmen/Fact_sheet_Hollow_Form_ID151.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\Aufnahmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD90D2-E140-492E-AD63-A6517D938C64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29F209-971F-401F-A0D7-5A7B9A93C1B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>Profil ID</t>
   </si>
@@ -61,11 +61,6 @@
   <si>
     <t>Anzahl 
 Schläge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Ringwall nur grob vorhanden
-- eventuelle große Abraumhalde in der Nähe
-- sehr steinige Bodefläche</t>
   </si>
   <si>
     <t>1.1</t>
@@ -146,6 +141,15 @@
   </si>
   <si>
     <t>Fact_Sheet_Hollow_Form_ID151</t>
+  </si>
+  <si>
+    <t>Allgemeine Beschreibung des Kraters:
+- Ringwall nur grob vorhanden
+- eventuelle große Abraumhalde in der Nähe
+- sehr steinige Bodefläche</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1050,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -1070,7 +1074,7 @@
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1078,7 +1082,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
       <c r="G2" s="33" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -1769,7 +1773,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="10"/>
       <c r="F32" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1852,14 +1856,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C37" s="31">
         <v>15</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="46"/>
@@ -1879,16 +1885,16 @@
     </row>
     <row r="38" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>14</v>
       </c>
       <c r="C38" s="31">
         <v>15</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="46"/>
@@ -1908,14 +1914,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C39" s="31">
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="46"/>
@@ -1935,16 +1943,16 @@
     </row>
     <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>17</v>
       </c>
       <c r="C40" s="31">
         <v>10</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46"/>
@@ -1964,14 +1972,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C41" s="31">
         <v>17</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="46"/>
@@ -1991,14 +2001,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C42" s="31">
         <v>50</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="46"/>
@@ -2018,16 +2030,16 @@
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="31">
         <v>15</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="46"/>
@@ -2047,14 +2059,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C44" s="31">
         <v>30</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="46"/>
@@ -2074,14 +2088,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C45" s="31">
         <v>15</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
@@ -2101,16 +2117,16 @@
     </row>
     <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="31">
         <v>10</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="46"/>
@@ -2130,14 +2146,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C47" s="31">
         <v>70</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="46"/>
@@ -2157,14 +2175,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="C48" s="31">
         <v>95</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="45"/>
       <c r="G48" s="46"/>
@@ -2875,7 +2895,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" s="19">
         <v>50</v>
